--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DA20F9-09B2-486F-9AEA-B6820FBBDC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC378C-87E4-4DC7-917C-467A950123AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -46,11 +46,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hello Warld.</t>
+    <t>New Text</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>New Text</t>
+    <t>あああ&lt;color=#0073FF&gt;いいい&lt;/color&gt;うううえええ&lt;color=#0073FF&gt;おおお&lt;/color&gt;かかか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,12 +418,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.59765625" customWidth="1"/>
+    <col min="2" max="2" width="83.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC378C-87E4-4DC7-917C-467A950123AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CCFF6-18E9-43E4-9303-7049D4973019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -46,11 +46,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>New Text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あああ&lt;color=#0073FF&gt;いいい&lt;/color&gt;うううえええ&lt;color=#0073FF&gt;おおお&lt;/color&gt;かかか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeSync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数キャラの登場</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1\0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2\1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chara\Face</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharaID -&gt; 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2\0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;太文字&lt;/b&gt;の表示</t>
+    <rPh sb="3" eb="6">
+      <t>フトモジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=50&gt;サイズの変更&lt;/size&gt;を表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;i&gt;Unity&lt;/i&gt;イタリック体の表示</t>
+    <rPh sb="17" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -97,8 +161,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,18 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79E2B1-5512-4191-864B-178F3362ED17}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="83.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,27 +506,81 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68CCFF6-18E9-43E4-9303-7049D4973019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A4A494-EEE5-47C2-9FC9-CAF6C0B7C090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -64,27 +64,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1\0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2\1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chara\Face</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CharaID -&gt; 10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2\0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -115,6 +95,66 @@
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#00-Chara  00-Face 00-FadeType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FadeType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00- In</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01 - Out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02 - Cross</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,01,00#02,01,00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,02,00#02,02,00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Talk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-Right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-All</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-Left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-Right</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -482,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79E2B1-5512-4191-864B-178F3362ED17}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -493,6 +533,7 @@
     <col min="2" max="2" width="83.59765625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,8 +550,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -521,10 +565,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -532,16 +582,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -549,16 +602,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -566,13 +619,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -581,6 +637,57 @@
       </c>
       <c r="B6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A4A494-EEE5-47C2-9FC9-CAF6C0B7C090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AD2BD-BEE6-4851-A410-F911F7A1165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>2-Right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -525,7 +533,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -573,8 +581,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>12</v>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -593,8 +601,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>21</v>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">

--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AD2BD-BEE6-4851-A410-F911F7A1165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A609A-DA9F-45DD-8129-0BAE83905753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>あああ&lt;color=#0073FF&gt;いいい&lt;/color&gt;うううえええ&lt;color=#0073FF&gt;おおお&lt;/color&gt;かかか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FadeSync</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -163,6 +159,38 @@
   </si>
   <si>
     <t>2,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-Nothing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,02,03#02,02,03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharaFadeSync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BackGroundID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,17 +558,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79E2B1-5512-4191-864B-178F3362ED17}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="83.59765625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
     <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
@@ -556,13 +587,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -573,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -582,7 +616,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -590,19 +627,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -610,16 +650,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -627,16 +673,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -644,58 +696,63 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A609A-DA9F-45DD-8129-0BAE83905753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F0D0E5-0F7A-4A48-95EB-D0C5CBE5B4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -47,16 +47,6 @@
   </si>
   <si>
     <t>あああ&lt;color=#0073FF&gt;いいい&lt;/color&gt;うううえええ&lt;color=#0073FF&gt;おおお&lt;/color&gt;かかか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数キャラの登場</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,10 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#01,02,03#02,02,03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CharaFadeSync</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -191,6 +177,52 @@
   </si>
   <si>
     <t>None,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ BackGroundID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージのID, FadeType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,02,02#02,02,02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰もいない状態でのText表示</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charaを変えずそのまま話す</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charaを変えずそのまま話す.おんなじ人物</t>
+    <rPh sb="20" eb="22">
+      <t>ジンブツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -558,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79E2B1-5512-4191-864B-178F3362ED17}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -587,16 +619,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -607,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -616,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -627,10 +659,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -639,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -650,10 +682,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -662,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -673,10 +705,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -685,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -696,63 +728,115 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Datas/ExcelData.xlsx
+++ b/Assets/Datas/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F0D0E5-0F7A-4A48-95EB-D0C5CBE5B4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57FA81-C05D-4AC9-8BAC-B038C59A4455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D8B507-FBA9-4D55-B4EA-8CF808B210CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>CharaID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あああ&lt;color=#0073FF&gt;いいい&lt;/color&gt;うううえええ&lt;color=#0073FF&gt;おおお&lt;/color&gt;かかか</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#01,01,00#02,01,00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#01,02,00#02,02,00</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2,02</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -185,10 +173,6 @@
   </si>
   <si>
     <t>イメージのID, FadeType</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#01,02,02#02,02,02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -223,6 +207,17 @@
     <rPh sb="20" eb="22">
       <t>ジンブツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#01,01,00#02,01,00</t>
+  </si>
+  <si>
+    <t>aaa&lt;aaaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,7 +588,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -619,16 +614,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -636,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -648,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -659,22 +654,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -682,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -694,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -705,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -717,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -728,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -742,19 +728,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -762,10 +745,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -775,68 +755,68 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
